--- a/DRE/cap08-BasesDeDatos/TablasMaestras/IPT_ACRM_TB_VAL_COMPANY_STATUS_150505.xlsx
+++ b/DRE/cap08-BasesDeDatos/TablasMaestras/IPT_ACRM_TB_VAL_COMPANY_STATUS_150505.xlsx
@@ -406,12 +406,12 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
